--- a/biology/Microbiologie/Fusobacteriia/Fusobacteriia.xlsx
+++ b/biology/Microbiologie/Fusobacteriia/Fusobacteriia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Fusobacteriia sont une classe de bacilles Gram négatif de l'embranchement des Fusobacteriota. Son nom provient de Fusobacteriales qui est l'ordre type de cette classe.
-En 2022 selon la LPSN  (18 novembre 2022)[2] cette classe ne comporte qu'un seul ordre, les Fusobacteriales Staley &amp; Whitman 2012.
+En 2022 selon la LPSN  (18 novembre 2022) cette classe ne comporte qu'un seul ordre, les Fusobacteriales Staley &amp; Whitman 2012.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette classe est proposée dès 2006 par T. Cavalier-Smith sous le nom de « Fusibacteria »[3] mais ce nom n'est pas validement publié. La première publication effective est produite par J.T. Staley et W.B. Whitman en 2010 dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Fusobacteriia »[4].
-Validé par une publication dans l'IJSEM en 2012[1], ce nouveau nom reste conforme au code de nomenclature bactérienne après la décision de l'ICSP en 2021 (qui stipule que le nom d'une classe doit être dérivé du radical du nom de son genre ou de son ordre type, en l'occurrence Fusobacteriales, par adjonction du suffixe -ia[5]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette classe est proposée dès 2006 par T. Cavalier-Smith sous le nom de « Fusibacteria » mais ce nom n'est pas validement publié. La première publication effective est produite par J.T. Staley et W.B. Whitman en 2010 dans la deuxième édition du Bergey's Manual of Systematic Bacteriology sous le nom de « Fusobacteriia ».
+Validé par une publication dans l'IJSEM en 2012, ce nouveau nom reste conforme au code de nomenclature bactérienne après la décision de l'ICSP en 2021 (qui stipule que le nom d'une classe doit être dérivé du radical du nom de son genre ou de son ordre type, en l'occurrence Fusobacteriales, par adjonction du suffixe -ia).
 </t>
         </is>
       </c>
